--- a/up/formato.xlsx
+++ b/up/formato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dev25\up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E8BC5-755F-480E-B798-933F7A71338F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE58677-6A40-4F13-A83A-92DE9A122FA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFC" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Creación</t>
   </si>
   <si>
-    <t>Actualización de datos</t>
-  </si>
-  <si>
     <t>Inactivación de usuarios</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
       </rPr>
       <t>(tomada de la CC)</t>
     </r>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -641,10 +641,10 @@
         <v>12</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -652,158 +652,158 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1030679367</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="4">
         <v>35611</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>1234567891</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1030679368</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
-        <v>1030679367</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="4">
         <v>35611</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2">
         <v>1234567891</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1030679367</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>35611</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
         <v>1234567891</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
